--- a/experiments/data/CASE2021/stats.xlsx
+++ b/experiments/data/CASE2021/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work Spaces\Python\XEventMiner\experiments\data\CASE2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B32EA3-F889-4A16-ACEF-0B2EB1258BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477AE4C-DE95-4315-ACD6-DDAA9CCCE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sentence" sheetId="2" r:id="rId1"/>
     <sheet name="token" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>en</t>
   </si>
@@ -40,18 +40,35 @@
     <t>original</t>
   </si>
   <si>
-    <t>without_duplicates</t>
-  </si>
-  <si>
     <t>filtered</t>
+  </si>
+  <si>
+    <t>sentences</t>
+  </si>
+  <si>
+    <t>sentences without triggers</t>
+  </si>
+  <si>
+    <t>without_duplicates (sentence level)</t>
+  </si>
+  <si>
+    <t>without_duplicates (token level)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,8 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,23 +388,23 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -393,6 +417,9 @@
       <c r="C2">
         <v>22582</v>
       </c>
+      <c r="D2">
+        <v>21107</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -404,6 +431,9 @@
       <c r="C3">
         <v>2741</v>
       </c>
+      <c r="D3">
+        <v>2666</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -415,34 +445,46 @@
       <c r="C4">
         <v>1182</v>
       </c>
+      <c r="D4">
+        <v>1095</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,8 +494,14 @@
       <c r="C2">
         <v>806</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>3239</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -463,8 +511,14 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -473,6 +527,12 @@
       </c>
       <c r="C4">
         <v>33</v>
+      </c>
+      <c r="D4">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
